--- a/海云5.0开发计划(前后端).xlsx
+++ b/海云5.0开发计划(前后端).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>任务</t>
   </si>
@@ -265,10 +265,6 @@
   </si>
   <si>
     <t>朱小中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李强</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -439,6 +435,14 @@
   </si>
   <si>
     <t>大后台集市考虑多种存储如何关联查询灌入到新的集市中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芳芳、李强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芳芳、李强</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1114,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1140,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1149,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1188,7 +1192,7 @@
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>9</v>
@@ -1251,10 +1255,10 @@
     <row r="7" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="54"/>
       <c r="B7" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>100</v>
       </c>
       <c r="D7" s="45">
         <v>43759</v>
@@ -1274,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9">
         <v>43760</v>
@@ -1283,7 +1287,7 @@
         <v>43764</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="9">
         <v>43760</v>
@@ -1322,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1372,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="56">
         <v>43760</v>
@@ -1381,7 +1385,7 @@
         <v>43764</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="56">
         <v>43773</v>
@@ -1398,12 +1402,12 @@
         <v>15</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
       <c r="F14" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
@@ -1416,12 +1420,12 @@
         <v>16</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
       <c r="F15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -1431,19 +1435,19 @@
     <row r="16" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="49"/>
       <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>79</v>
-      </c>
       <c r="D16" s="21">
-        <v>43775</v>
+        <v>43770</v>
       </c>
       <c r="E16" s="21">
         <v>43777</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="21">
         <v>43775</v>
@@ -1471,7 +1475,7 @@
         <v>43708</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="56">
         <v>43766</v>
@@ -1497,7 +1501,7 @@
         <v>43715</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -1519,7 +1523,7 @@
         <v>43720</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
@@ -1537,7 +1541,7 @@
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
       <c r="F20" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -1610,7 +1614,7 @@
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>30</v>
@@ -1625,7 +1629,7 @@
         <v>43707</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="G24" s="9">
         <v>43773</v>
@@ -1651,7 +1655,7 @@
         <v>43720</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G25" s="9">
         <v>43763</v>
@@ -1665,7 +1669,7 @@
     <row r="26" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>55</v>
@@ -1673,7 +1677,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="56">
         <v>43770</v>
@@ -1687,7 +1691,7 @@
     <row r="27" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>55</v>
@@ -1695,7 +1699,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="57"/>
@@ -1705,7 +1709,7 @@
     <row r="28" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>55</v>
@@ -1713,7 +1717,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="9">
         <v>43780</v>
@@ -1727,7 +1731,7 @@
     <row r="29" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>55</v>
@@ -1739,7 +1743,7 @@
         <v>43763</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="56">
         <v>43788</v>
@@ -1753,7 +1757,7 @@
     <row r="30" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>55</v>
@@ -1765,7 +1769,7 @@
         <v>43770</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="57"/>
@@ -1775,7 +1779,7 @@
     <row r="31" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>55</v>
@@ -1787,7 +1791,7 @@
         <v>43777</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="56">
         <v>43795</v>
@@ -1801,7 +1805,7 @@
     <row r="32" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>55</v>
@@ -1809,7 +1813,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
@@ -1827,7 +1831,7 @@
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1849,7 +1853,7 @@
         <v>43714</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="9">
         <v>43776</v>
@@ -1875,7 +1879,7 @@
         <v>43721</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="9">
         <v>43788</v>
@@ -1892,12 +1896,12 @@
         <v>42</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="9">
         <v>43795</v>
@@ -1988,7 +1992,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="56">
         <v>43710</v>
@@ -2008,7 +2012,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
@@ -2082,7 +2086,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="40">
         <v>43734</v>
@@ -2102,7 +2106,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="65">
         <v>43710</v>
@@ -2122,7 +2126,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
@@ -2138,7 +2142,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="67"/>
       <c r="E49" s="67"/>
@@ -2154,7 +2158,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="40">
         <v>43724</v>
@@ -2170,13 +2174,13 @@
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="9">
         <v>43766</v>
@@ -2193,10 +2197,10 @@
     <row r="52" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="64"/>
       <c r="B52" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="9">
         <v>43770</v>
@@ -2213,10 +2217,10 @@
     <row r="53" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="64"/>
       <c r="B53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>93</v>
       </c>
       <c r="D53" s="9">
         <v>43780</v>
@@ -2233,10 +2237,10 @@
     <row r="54" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="64"/>
       <c r="B54" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="9">
         <v>43787</v>
@@ -2253,10 +2257,10 @@
     <row r="55" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="64"/>
       <c r="B55" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" s="9">
         <v>43787</v>
@@ -2272,13 +2276,13 @@
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C56" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="9">
         <v>43710</v>
@@ -2295,10 +2299,10 @@
     <row r="57" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="64"/>
       <c r="B57" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="9">
         <v>43759</v>
@@ -2315,10 +2319,10 @@
     <row r="58" spans="1:10" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="A58" s="64"/>
       <c r="B58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="9">
         <v>43766</v>
@@ -2327,7 +2331,7 @@
         <v>43772</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" s="9">
         <v>43787</v>
@@ -2341,10 +2345,10 @@
     <row r="59" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="64"/>
       <c r="B59" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="9">
         <v>43772</v>
@@ -2353,7 +2357,7 @@
         <v>43772</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" s="9">
         <v>43795</v>
@@ -2367,10 +2371,10 @@
     <row r="60" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="64"/>
       <c r="B60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="9">
         <v>43772</v>
@@ -2379,7 +2383,7 @@
         <v>43784</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" s="9">
         <v>43798</v>
